--- a/solid/表格.xlsx
+++ b/solid/表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="12750" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="镜头" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+  <si>
+    <t>镜头</t>
+  </si>
+  <si>
+    <t>F1.2</t>
+  </si>
+  <si>
+    <t>F1.4</t>
+  </si>
+  <si>
+    <t>F1.8</t>
+  </si>
+  <si>
+    <t>F2.0</t>
+  </si>
+  <si>
+    <t>F2.4</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -79,6 +97,9 @@
     <t>长征5</t>
   </si>
   <si>
+    <t>中国</t>
+  </si>
+  <si>
     <t>13/6.7(YZ-2上面级)</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t>德尔塔IV</t>
   </si>
   <si>
+    <t>美国</t>
+  </si>
+  <si>
     <t>猎鹰9</t>
   </si>
   <si>
@@ -103,13 +127,22 @@
     <t>H3</t>
   </si>
   <si>
+    <t>日本</t>
+  </si>
+  <si>
     <t>&gt;4</t>
   </si>
   <si>
     <t>阿丽亚娜-6</t>
   </si>
   <si>
+    <t>欧洲</t>
+  </si>
+  <si>
     <t>安加拉-A5</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
   </si>
 </sst>
 </file>
@@ -1043,14 +1076,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1062,16 +1116,16 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="5" width="8.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
@@ -1084,51 +1138,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>849</v>
@@ -1143,16 +1200,16 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1">
         <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1">
         <v>8.2</v>
@@ -1163,7 +1220,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>733.4</v>
@@ -1186,7 +1246,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>550</v>
@@ -1206,7 +1269,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>1420</v>
@@ -1229,7 +1295,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>5000</v>
@@ -1240,26 +1309,35 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>574</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1">
         <v>7.9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/solid/表格.xlsx
+++ b/solid/表格.xlsx
@@ -1,39 +1,271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8E880-EF64-4130-BAA4-06F85F0F562A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25230" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="镜头" sheetId="2" r:id="rId1"/>
     <sheet name="火箭" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="丰石工资单" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">火箭!$A$1:$N$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_A0CF9FFA23E34AF1A6E5D4D3B01237B4" descr="Snipaste_2024-10-25_11-09-36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="1038225"/>
+          <a:ext cx="883285" cy="496570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_01615F6E667E48CFA1B8A3F20BB2ACEF"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="857250"/>
+          <a:ext cx="15611475" cy="8753475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_BA89ED3C532B437F88B2BCE60159174C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="685800"/>
+          <a:ext cx="15611475" cy="8705850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_4DF6C76C3CB84CA0A3715FA6FA63CC5E"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="514350"/>
+          <a:ext cx="15611475" cy="8686800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_AB17303D9111418E951A41C4F31F1547"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="342900"/>
+          <a:ext cx="15611475" cy="8829675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_3F365688E36D4182B7DE785E8F1921B4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="2647315"/>
+          <a:ext cx="15611475" cy="8791575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_856C09199A31486B91EE9C5CE0D53F17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="3183255"/>
+          <a:ext cx="15611475" cy="8763000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_A24C8350784B421FA4B13E52D60D8296"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="3717290"/>
+          <a:ext cx="15611475" cy="8753475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>镜头</t>
   </si>
@@ -95,6 +327,9 @@
     <t>地冥(地木)轨道</t>
   </si>
   <si>
+    <t>长征5号</t>
+  </si>
+  <si>
     <t>中国</t>
   </si>
   <si>
@@ -107,47 +342,17 @@
     <t>5.1(YZ-2上面级)</t>
   </si>
   <si>
-    <t>德尔塔IV</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>猎鹰9</t>
-  </si>
-  <si>
-    <t>猎鹰重型</t>
-  </si>
-  <si>
-    <t>星舰</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>&gt;4</t>
-  </si>
-  <si>
-    <t>阿丽亚娜-6</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>安加拉-A5</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>7607kN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>长征7号改</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -155,16 +360,36 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4432kN</t>
+      <t>128kN</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德尔塔IV</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>猎鹰9</t>
+  </si>
+  <si>
+    <t>7607kN</t>
+  </si>
+  <si>
+    <t>猎鹰重型</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -172,24 +397,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2819kN</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长征7号改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长征5号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星舰</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -197,20 +422,156 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>128kN</t>
+      <t>4432kN</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>&gt;4</t>
+  </si>
+  <si>
+    <t>阿丽亚娜-6</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>安加拉-A5</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>应发工资项</t>
+  </si>
+  <si>
+    <t>工资扣除项</t>
+  </si>
+  <si>
+    <t>本月实发工资</t>
+  </si>
+  <si>
+    <t>基本工资</t>
+  </si>
+  <si>
+    <t>绩效工资</t>
+  </si>
+  <si>
+    <t>项目津贴</t>
+  </si>
+  <si>
+    <t>通信补贴</t>
+  </si>
+  <si>
+    <t>加班/补发工资</t>
+  </si>
+  <si>
+    <t>奖金/其它补贴</t>
+  </si>
+  <si>
+    <t>社保</t>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>请假/其它扣款金额</t>
+  </si>
+  <si>
+    <t>持证绩效扣款金额</t>
+  </si>
+  <si>
+    <t>社保公积金扣差额</t>
+  </si>
+  <si>
+    <t>个税</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>547.24</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>130.04</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>125.54</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>124.04</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>124.05</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>226.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,36 +580,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,34 +926,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,21 +1501,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,277 +1536,760 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="18.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7" style="5" customWidth="1"/>
+    <col min="3" max="5" width="8.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="5" customWidth="1"/>
+    <col min="10" max="13" width="18.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5">
+        <v>849</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1078</v>
+      </c>
+      <c r="F2" s="5">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5">
+        <v>8.2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5">
+        <v>733.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>28.79</v>
+      </c>
+      <c r="J4" s="5">
+        <v>14.22</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="L4" s="5">
+        <v>11</v>
+      </c>
+      <c r="M4" s="5">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>550</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8.3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1420</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>63.8</v>
+      </c>
+      <c r="J6" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="M6" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5">
+        <v>574</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>849</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1078</v>
-      </c>
-      <c r="F2" s="1">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>733.4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>28.79</v>
-      </c>
-      <c r="J4" s="1">
-        <v>14.22</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="L4" s="1">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1">
-        <v>550</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1420</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>63.8</v>
-      </c>
-      <c r="J6" s="1">
-        <v>26.7</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>574</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N10" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2">
+        <f>C3+D3+E3+F3+G3+H3-I3-J3-K3-L3-M3-N3</f>
+        <v>9204.72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_AB17303D9111418E951A41C4F31F1547",1)</f>
+        <v>=DISPIMG("ID_AB17303D9111418E951A41C4F31F1547",1)</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B10" si="0">C4+D4+E4+F4+G4+H4-I4-J4-K4-L4-M4-N4</f>
+        <v>9059.22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_4DF6C76C3CB84CA0A3715FA6FA63CC5E",1)</f>
+        <v>=DISPIMG("ID_4DF6C76C3CB84CA0A3715FA6FA63CC5E",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>9010.72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_BA89ED3C532B437F88B2BCE60159174C",1)</f>
+        <v>=DISPIMG("ID_BA89ED3C532B437F88B2BCE60159174C",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>9010.71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_01615F6E667E48CFA1B8A3F20BB2ACEF",1)</f>
+        <v>=DISPIMG("ID_01615F6E667E48CFA1B8A3F20BB2ACEF",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>9010.72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_A0CF9FFA23E34AF1A6E5D4D3B01237B4",1)</f>
+        <v>=DISPIMG("ID_A0CF9FFA23E34AF1A6E5D4D3B01237B4",1)</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>9010.72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_3F365688E36D4182B7DE785E8F1921B4",1)</f>
+        <v>=DISPIMG("ID_3F365688E36D4182B7DE785E8F1921B4",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>9010.71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_856C09199A31486B91EE9C5CE0D53F17",1)</f>
+        <v>=DISPIMG("ID_856C09199A31486B91EE9C5CE0D53F17",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8907.87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>_xlfn.DISPIMG("ID_A24C8350784B421FA4B13E52D60D8296",1)</f>
+        <v>=DISPIMG("ID_A24C8350784B421FA4B13E52D60D8296",1)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/solid/表格.xlsx
+++ b/solid/表格.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25230" windowHeight="12705" activeTab="2"/>
+    <workbookView windowWidth="25230" windowHeight="12705"/>
   </bookViews>
   <sheets>
-    <sheet name="镜头" sheetId="2" r:id="rId1"/>
-    <sheet name="火箭" sheetId="1" r:id="rId2"/>
-    <sheet name="丰石工资单" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="镜头" sheetId="2" r:id="rId2"/>
+    <sheet name="火箭" sheetId="1" r:id="rId3"/>
+    <sheet name="丰石工资单" sheetId="3" r:id="rId4"/>
+    <sheet name="账单（预估）" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">火箭!$A$1:$N$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">火箭!$A$1:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,9 +267,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
   <si>
     <t>镜头</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>旅行重量</t>
+  </si>
+  <si>
+    <t>覆盖焦段</t>
+  </si>
+  <si>
+    <t>APS-C覆盖焦段</t>
+  </si>
+  <si>
+    <t>旅行APS-C覆盖焦段</t>
+  </si>
+  <si>
+    <t>索尼 16-25 2.8</t>
+  </si>
+  <si>
+    <t>索尼 20-70 4.0</t>
+  </si>
+  <si>
+    <t>适马 24-70 2.8</t>
+  </si>
+  <si>
+    <t>腾龙 35-150 2.0-2.8</t>
+  </si>
+  <si>
+    <t>腾龙 50-300 4.5-6.3</t>
+  </si>
+  <si>
+    <t>腾龙 70-180 2.8</t>
+  </si>
+  <si>
+    <t>索尼 200-600 5.6-6.3</t>
+  </si>
+  <si>
+    <t>适马 500 5.6</t>
+  </si>
+  <si>
+    <t>索尼 16-25 2.8
+腾龙 35-150 2.0-2.8
+索尼 200-600 5.6-6.3</t>
+  </si>
+  <si>
+    <t>16-600</t>
+  </si>
+  <si>
+    <t>16-900</t>
+  </si>
+  <si>
+    <t>16-225</t>
+  </si>
+  <si>
+    <t>索尼 16-25 2.8
+腾龙 35-150 2.0-2.8
+适马 500 5.6</t>
+  </si>
+  <si>
+    <t>16-150,500</t>
+  </si>
+  <si>
+    <t>16-225,500-750</t>
+  </si>
+  <si>
+    <t>索尼 20-70 4.0
+腾龙 70-180 2.8
+适马 500 5.6</t>
+  </si>
+  <si>
+    <t>20-180,500</t>
+  </si>
+  <si>
+    <t>20-270,500-750</t>
+  </si>
+  <si>
+    <t>20-270</t>
+  </si>
+  <si>
+    <t>索尼 20-70 4.0
+腾龙 50-300 4.5-6.3
+适马 500 5.6</t>
+  </si>
+  <si>
+    <t>20-300,500</t>
+  </si>
+  <si>
+    <t>20-450,500-750</t>
+  </si>
+  <si>
+    <t>20-450</t>
+  </si>
+  <si>
+    <t>适马 24-70 2.8
+腾龙 70-180 2.8
+适马 500 5.6</t>
+  </si>
+  <si>
+    <t>24-180,500</t>
+  </si>
+  <si>
+    <t>24-270,500-750</t>
+  </si>
+  <si>
+    <t>24-270</t>
+  </si>
+  <si>
+    <t>适马 24-70 2.8
+腾龙 50-300 4.5-6.3
+适马 500 5.6</t>
+  </si>
+  <si>
+    <t>24-300,500</t>
+  </si>
+  <si>
+    <t>24-450,500-750</t>
+  </si>
+  <si>
+    <t>24-450</t>
   </si>
   <si>
     <t>F1.2</t>
@@ -559,6 +684,129 @@
   </si>
   <si>
     <t>226.89</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>停车</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>京东分期</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>信用卡</t>
+  </si>
+  <si>
+    <t>旅游/出行</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>2025-11</t>
+  </si>
+  <si>
+    <t>2025-12</t>
+  </si>
+  <si>
+    <t>2026-01</t>
+  </si>
+  <si>
+    <t>2026-02</t>
+  </si>
+  <si>
+    <t>2026-03</t>
+  </si>
+  <si>
+    <t>2026-04</t>
+  </si>
+  <si>
+    <t>2026-05</t>
+  </si>
+  <si>
+    <t>2026-06</t>
+  </si>
+  <si>
+    <t>2026-07</t>
+  </si>
+  <si>
+    <t>2026-08</t>
+  </si>
+  <si>
+    <t>2026-09</t>
+  </si>
+  <si>
+    <t>2026-10</t>
+  </si>
+  <si>
+    <t>2026-11</t>
+  </si>
+  <si>
+    <t>2026-12</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,6 +1435,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,6 +1446,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1507,10 +1761,324 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>409</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7699</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>488</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6599</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>745</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8488</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11519</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>665</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5345</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>855</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8062</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2115</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12199</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1365</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21434</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" ht="40.5" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SUM(B2,B5,B8)</f>
+        <v>3689</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(C2,C5,C8)</f>
+        <v>31417</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(B2,B5)</f>
+        <v>1574</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SUM(B2,B5,B9)</f>
+        <v>2939</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C2,C5,C9)</f>
+        <v>40652</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(B2,B5)</f>
+        <v>1574</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(B3,B7,B9)</f>
+        <v>2708</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C3,C7,C9)</f>
+        <v>36095</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(B3,B7)</f>
+        <v>1343</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <f>SUM(B3,B6,B9)</f>
+        <v>2518</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C3,C6,C9)</f>
+        <v>33378</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(B3,B6)</f>
+        <v>1153</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <f>SUM(B4,B7,B9)</f>
+        <v>2965</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C4,C7,C9)</f>
+        <v>37984</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(B4,B7)</f>
+        <v>1600</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <f>SUM(B4,B6,B9)</f>
+        <v>2775</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(C4,C6,C9)</f>
+        <v>35267</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(B4,B6)</f>
+        <v>1410</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1520,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +2110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N10"/>
@@ -1555,240 +2123,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7" style="5" customWidth="1"/>
-    <col min="3" max="5" width="8.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="5" customWidth="1"/>
-    <col min="10" max="13" width="18.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7" style="6" customWidth="1"/>
+    <col min="3" max="5" width="8.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="6" customWidth="1"/>
+    <col min="10" max="13" width="18.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6">
+        <v>849</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1078</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="6">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6">
+        <v>8.2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6">
+        <v>733.4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>28.79</v>
+      </c>
+      <c r="J4" s="6">
+        <v>14.22</v>
+      </c>
+      <c r="K4" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="L4" s="6">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5">
-        <v>849</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1078</v>
-      </c>
-      <c r="F2" s="5">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5">
-        <v>8.2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5">
-        <v>12</v>
-      </c>
-      <c r="J3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5">
-        <v>733.4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>28.79</v>
-      </c>
-      <c r="J4" s="5">
-        <v>14.22</v>
-      </c>
-      <c r="K4" s="5">
-        <v>6.75</v>
-      </c>
-      <c r="L4" s="5">
-        <v>11</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>8.8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6">
         <v>550</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="6">
         <v>22.8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>8.3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>4.02</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6">
         <v>1420</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6">
         <v>63.8</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>26.7</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>16.8</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6">
         <v>5000</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="A8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6">
         <v>574</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="G8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="6">
         <v>7.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1801,12 +2369,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
@@ -1827,112 +2395,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
         <f>C3+D3+E3+F3+G3+H3-I3-J3-K3-L3-M3-N3</f>
         <v>9204.72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_AB17303D9111418E951A41C4F31F1547",1)</f>
@@ -1941,47 +2509,47 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" si="0">C4+D4+E4+F4+G4+H4-I4-J4-K4-L4-M4-N4</f>
         <v>9059.22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="O4" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_4DF6C76C3CB84CA0A3715FA6FA63CC5E",1)</f>
@@ -1990,47 +2558,47 @@
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>9010.72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_BA89ED3C532B437F88B2BCE60159174C",1)</f>
@@ -2039,47 +2607,47 @@
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>9010.71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_01615F6E667E48CFA1B8A3F20BB2ACEF",1)</f>
@@ -2088,47 +2656,47 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>9010.72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="O7" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_A0CF9FFA23E34AF1A6E5D4D3B01237B4",1)</f>
@@ -2137,47 +2705,47 @@
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>9010.72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_3F365688E36D4182B7DE785E8F1921B4",1)</f>
@@ -2186,47 +2754,47 @@
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>9010.71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O9" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_856C09199A31486B91EE9C5CE0D53F17",1)</f>
@@ -2235,47 +2803,47 @@
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>8907.87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>_xlfn.DISPIMG("ID_A24C8350784B421FA4B13E52D60D8296",1)</f>
@@ -2292,4 +2860,544 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:13">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3+SUM(C4,D4)-SUM(E4,F4,G4,H4,I4,J4,K4,L4,M4)</f>
+        <v>-1668</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8900</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1760</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2">
+        <v>160</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4515</v>
+      </c>
+      <c r="J4" s="2">
+        <v>794</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1359</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1900</v>
+      </c>
+      <c r="M4" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B17" si="0">B4+SUM(C5,D5)-SUM(E5,F5,G5,H5,I5,J5,K5,L5,M5)</f>
+        <v>1667</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8900</v>
+      </c>
+      <c r="D5" s="2">
+        <v>880</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="2">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2">
+        <v>160</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>2502</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8900</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
+        <v>160</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2205</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>7090</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8900</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="2">
+        <v>160</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>7978</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>160</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>3666</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>160</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M9" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>-646</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>160</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>-4958</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>160</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M11" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>-9270</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>160</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M12" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>-13582</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>160</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M13" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>-17894</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="2">
+        <v>160</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M14" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>-22206</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="2">
+        <v>160</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M15" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>-26518</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H16" s="2">
+        <v>160</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M16" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>-30547</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="2">
+        <v>160</v>
+      </c>
+      <c r="I17" s="2">
+        <v>869</v>
+      </c>
+      <c r="M17" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/solid/表格.xlsx
+++ b/solid/表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25230" windowHeight="12705"/>
+    <workbookView windowWidth="25230" windowHeight="12705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1763,7 +1760,7 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
@@ -1908,10 +1905,10 @@
       <c r="F9" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" ht="40.5" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
@@ -1963,7 +1960,7 @@
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2">
@@ -1989,7 +1986,7 @@
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2">
@@ -2015,7 +2012,7 @@
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2">
@@ -2041,7 +2038,7 @@
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2">
@@ -2123,239 +2120,239 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7" style="6" customWidth="1"/>
-    <col min="3" max="5" width="8.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="6" customWidth="1"/>
-    <col min="10" max="13" width="18.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7" style="5" customWidth="1"/>
+    <col min="3" max="5" width="8.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="5" customWidth="1"/>
+    <col min="10" max="13" width="18.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>849</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1078</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>25</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>8.2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>12</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>733.4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>28.79</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>14.22</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>6.75</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>8.8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>550</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>22.8</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>8.3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>4.02</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1420</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>63.8</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>26.7</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>16.8</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>5000</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>574</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>7.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2395,30 +2392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2867,10 +2864,10 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2992,7 +2989,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B17" si="0">B4+SUM(C5,D5)-SUM(E5,F5,G5,H5,I5,J5,K5,L5,M5)</f>
+        <f t="shared" ref="B5:B22" si="0">B4+SUM(C5,D5)-SUM(E5,F5,G5,H5,I5,J5,K5,L5,M5)</f>
         <v>1667</v>
       </c>
       <c r="C5" s="2">
@@ -3080,13 +3077,16 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>7978</v>
+        <v>11678</v>
       </c>
       <c r="C8" s="2">
-        <v>3500</v>
+        <v>8900</v>
       </c>
       <c r="E8" s="2">
-        <v>1000</v>
+        <v>1200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1500</v>
       </c>
       <c r="H8" s="2">
         <v>160</v>
@@ -3104,10 +3104,10 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>3666</v>
+        <v>16266</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="E9" s="2">
         <v>1200</v>
@@ -3131,7 +3131,10 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>-646</v>
+        <v>20854</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8900</v>
       </c>
       <c r="E10" s="2">
         <v>1200</v>
@@ -3155,13 +3158,10 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>-4958</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1500</v>
+        <v>22742</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3500</v>
       </c>
       <c r="H11" s="2">
         <v>160</v>
@@ -3179,13 +3179,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>-9270</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1500</v>
+        <v>21130</v>
       </c>
       <c r="H12" s="2">
         <v>160</v>
@@ -3203,13 +3197,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>-13582</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1500</v>
+        <v>19518</v>
       </c>
       <c r="H13" s="2">
         <v>160</v>
@@ -3227,13 +3215,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>-17894</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1500</v>
+        <v>17906</v>
       </c>
       <c r="H14" s="2">
         <v>160</v>
@@ -3251,13 +3233,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>-22206</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1500</v>
+        <v>16294</v>
       </c>
       <c r="H15" s="2">
         <v>160</v>
@@ -3275,13 +3251,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>-26518</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1500</v>
+        <v>14682</v>
       </c>
       <c r="H16" s="2">
         <v>160</v>
@@ -3299,13 +3269,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>-30547</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1500</v>
+        <v>13353</v>
       </c>
       <c r="H17" s="2">
         <v>160</v>
@@ -3317,44 +3281,79 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>12184</v>
+      </c>
       <c r="I18" s="2">
         <v>869</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="M18" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>11015</v>
+      </c>
       <c r="I19" s="2">
         <v>869</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="M19" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>9846</v>
+      </c>
       <c r="I20" s="2">
         <v>869</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M20" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>8677</v>
+      </c>
       <c r="I21" s="2">
         <v>869</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="M21" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>7508</v>
+      </c>
       <c r="I22" s="2">
         <v>869</v>
+      </c>
+      <c r="M22" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:1">
